--- a/xlsx/时尚 (杂志)_intext.xlsx
+++ b/xlsx/时尚 (杂志)_intext.xlsx
@@ -29,19 +29,19 @@
     <t>主编</t>
   </si>
   <si>
-    <t>政策_政策_美國_时尚 (杂志)</t>
+    <t>政策_政策_美国_时尚 (杂志)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A8%9C%C2%B7%E6%BA%AB%E7%89%B9</t>
   </si>
   <si>
-    <t>安娜·溫特</t>
+    <t>安娜·温特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B5%E5%AE%87_(%E5%AA%92%E9%AB%94%E4%BA%BA)</t>
   </si>
   <si>
-    <t>張宇 (媒體人)</t>
+    <t>张宇 (媒体人)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E5%B0%9A</t>
